--- a/src/main/resources/testdata/payaccount-testdata.xlsx
+++ b/src/main/resources/testdata/payaccount-testdata.xlsx
@@ -10,6 +10,8 @@
     <sheet name="pay_order" sheetId="1" r:id="rId1"/>
     <sheet name="pay_settle" sheetId="2" r:id="rId2"/>
     <sheet name="pay_settle_summary" sheetId="3" r:id="rId3"/>
+    <sheet name="pay_settle_result" sheetId="5" r:id="rId4"/>
+    <sheet name="pay_settle_summary_result" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +51,156 @@
   <si>
     <t>up146</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settleid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle_channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016071311395830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016071311395825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP20160713145841021000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016071311395825</t>
+  </si>
+  <si>
+    <t>OP20160713145841021000</t>
+  </si>
+  <si>
+    <t>11223344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordertype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_code</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>pay_period</t>
+  </si>
+  <si>
+    <t>trade_no</t>
+  </si>
+  <si>
+    <t>third_orderid</t>
+  </si>
+  <si>
+    <t>failurereasons</t>
+  </si>
+  <si>
+    <t>platformid</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>pay_time</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>return_url</t>
+  </si>
+  <si>
+    <t>notify_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+  </si>
+  <si>
+    <t>merchantid</t>
+  </si>
+  <si>
+    <t>productid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>royalty_flag</t>
+  </si>
+  <si>
+    <t>digest_alg</t>
+  </si>
+  <si>
+    <t>pro_count</t>
+  </si>
+  <si>
+    <t>order_type</t>
+  </si>
+  <si>
+    <t>merchant_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -91,8 +243,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,71 +526,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>11223344</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1">
         <v>20121212</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>11223355</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>20121213</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>11223366</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>20121214</v>
       </c>
     </row>
@@ -450,12 +684,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -463,6 +740,137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>388</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/main/resources/testdata/payaccount-testdata.xlsx
+++ b/src/main/resources/testdata/payaccount-testdata.xlsx
@@ -29,27 +29,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>transactionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settleid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>orderid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transactionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up144</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up146</t>
+    <t>merchant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,150 +73,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>settleid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>merchant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle_channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016071311395830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016071311395825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP20160713145841021000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016071311395825</t>
+  </si>
+  <si>
+    <t>OP20160713145841021000</t>
+  </si>
+  <si>
+    <t>11223344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordertype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_code</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>pay_period</t>
+  </si>
+  <si>
+    <t>trade_no</t>
+  </si>
+  <si>
+    <t>third_orderid</t>
+  </si>
+  <si>
+    <t>failurereasons</t>
+  </si>
+  <si>
+    <t>platformid</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>pay_time</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>return_url</t>
+  </si>
+  <si>
+    <t>notify_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+  </si>
+  <si>
+    <t>merchantid</t>
+  </si>
+  <si>
+    <t>productid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>royalty_flag</t>
+  </si>
+  <si>
+    <t>digest_alg</t>
+  </si>
+  <si>
+    <t>pro_count</t>
+  </si>
+  <si>
+    <t>order_type</t>
+  </si>
+  <si>
+    <t>merchant_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t>orderid</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchant_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchant_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transfer_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settle_channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016071311395830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016071311395825</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OP20160713145841021000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016071311395825</t>
-  </si>
-  <si>
-    <t>OP20160713145841021000</t>
-  </si>
-  <si>
-    <t>11223344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordertype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_code</t>
-  </si>
-  <si>
-    <t>account_type</t>
-  </si>
-  <si>
-    <t>pay_period</t>
-  </si>
-  <si>
-    <t>trade_no</t>
-  </si>
-  <si>
-    <t>third_orderid</t>
-  </si>
-  <si>
-    <t>failurereasons</t>
-  </si>
-  <si>
-    <t>platformid</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>pay_time</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>update_time</t>
-  </si>
-  <si>
-    <t>return_url</t>
-  </si>
-  <si>
-    <t>notify_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_flag</t>
-  </si>
-  <si>
-    <t>merchantid</t>
-  </si>
-  <si>
-    <t>productid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>royalty_flag</t>
-  </si>
-  <si>
-    <t>digest_alg</t>
-  </si>
-  <si>
-    <t>pro_count</t>
-  </si>
-  <si>
-    <t>order_type</t>
-  </si>
-  <si>
-    <t>merchant_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
   </si>
 </sst>
 </file>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,88 +549,88 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>43</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -638,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1">
         <v>20121212</v>
@@ -652,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>11223355</v>
@@ -666,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>11223366</v>
@@ -700,19 +700,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -720,10 +720,10 @@
         <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -757,25 +757,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -786,7 +786,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -825,22 +825,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -851,10 +851,10 @@
         <v>129</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>

--- a/src/main/resources/testdata/payaccount-testdata.xlsx
+++ b/src/main/resources/testdata/payaccount-testdata.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingxin/work/IdeaProjects/paystandtest/src/main/resources/testdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1760" yWindow="7760" windowWidth="25920" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="pay_order" sheetId="1" r:id="rId1"/>
@@ -13,9 +18,12 @@
     <sheet name="pay_settle_result" sheetId="5" r:id="rId4"/>
     <sheet name="pay_settle_summary_result" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,185 +37,185 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>up144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settleid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle_channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016071311395830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016071311395825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP20160713145841021000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016071311395825</t>
+  </si>
+  <si>
+    <t>OP20160713145841021000</t>
+  </si>
+  <si>
+    <t>11223344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordertype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_code</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>pay_period</t>
+  </si>
+  <si>
+    <t>trade_no</t>
+  </si>
+  <si>
+    <t>third_orderid</t>
+  </si>
+  <si>
+    <t>failurereasons</t>
+  </si>
+  <si>
+    <t>platformid</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>pay_time</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>return_url</t>
+  </si>
+  <si>
+    <t>notify_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+  </si>
+  <si>
+    <t>merchantid</t>
+  </si>
+  <si>
+    <t>productid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>royalty_flag</t>
+  </si>
+  <si>
+    <t>digest_alg</t>
+  </si>
+  <si>
+    <t>pro_count</t>
+  </si>
+  <si>
+    <t>order_type</t>
+  </si>
+  <si>
+    <t>merchant_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>orderid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>transactionid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>transaction_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up144</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up146</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settleid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchant_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchant_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transfer_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settle_channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016071311395830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016071311395825</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OP20160713145841021000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016071311395825</t>
-  </si>
-  <si>
-    <t>OP20160713145841021000</t>
-  </si>
-  <si>
-    <t>11223344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordertype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_code</t>
-  </si>
-  <si>
-    <t>account_type</t>
-  </si>
-  <si>
-    <t>pay_period</t>
-  </si>
-  <si>
-    <t>trade_no</t>
-  </si>
-  <si>
-    <t>third_orderid</t>
-  </si>
-  <si>
-    <t>failurereasons</t>
-  </si>
-  <si>
-    <t>platformid</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>pay_time</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>update_time</t>
-  </si>
-  <si>
-    <t>return_url</t>
-  </si>
-  <si>
-    <t>notify_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_flag</t>
-  </si>
-  <si>
-    <t>merchantid</t>
-  </si>
-  <si>
-    <t>productid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>royalty_flag</t>
-  </si>
-  <si>
-    <t>digest_alg</t>
-  </si>
-  <si>
-    <t>pro_count</t>
-  </si>
-  <si>
-    <t>order_type</t>
-  </si>
-  <si>
-    <t>merchant_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>orderid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +228,22 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,15 +264,119 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -529,19 +657,19 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -549,88 +677,88 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>42</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>46</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -638,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>20121212</v>
@@ -652,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>11223355</v>
@@ -666,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>11223366</v>
@@ -690,29 +818,29 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -720,10 +848,10 @@
         <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -747,35 +875,35 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="18.25" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -786,7 +914,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -815,32 +943,32 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -851,10 +979,10 @@
         <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -876,7 +1004,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/testdata/payaccount-testdata.xlsx
+++ b/src/main/resources/testdata/payaccount-testdata.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingxin/work/IdeaProjects/paystandtest/src/main/resources/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="7760" windowWidth="25920" windowHeight="12640"/>
+    <workbookView xWindow="1755" yWindow="7755" windowWidth="25920" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pay_order" sheetId="1" r:id="rId1"/>
@@ -20,35 +15,23 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>up144</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up146</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,24 +84,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OP20160713145841021000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016071311395825</t>
-  </si>
-  <si>
-    <t>OP20160713145841021000</t>
-  </si>
-  <si>
-    <t>11223344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ordertype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,25 +165,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>orderid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transactionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>orderid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transactionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up1467363720771</t>
+  </si>
+  <si>
+    <t>11335725725655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20130815162325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyy123</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>OP201607011702131991000</t>
+  </si>
+  <si>
+    <t>2016070121001004200275561283</t>
+  </si>
+  <si>
+    <t>2016-01-01 12:12:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+  </si>
+  <si>
+    <t>2016071311395835</t>
+  </si>
+  <si>
+    <t>OP20160713151246921000</t>
+  </si>
+  <si>
+    <t>2016071311395830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +282,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -318,12 +336,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="53" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="54">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -351,6 +371,7 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -656,20 +677,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -677,187 +700,410 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20121212</v>
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <v>15868477618</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>0.01</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11223355</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20121213</v>
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>15868477618</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>0.01</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4">
+        <v>15868477618</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>0.01</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="W4">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>11223366</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20121214</v>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>129</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
         <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -875,35 +1121,35 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="18.1640625" customWidth="1"/>
+    <col min="2" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -914,7 +1160,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -937,58 +1183,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
       </c>
       <c r="F2">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1253,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/testdata/payaccount-testdata.xlsx
+++ b/src/main/resources/testdata/payaccount-testdata.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingxin/work/IdeaProjects/paystandtest/src/main/resources/testdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="7755" windowWidth="25920" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="1760" yWindow="5360" windowWidth="25920" windowHeight="12640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pay_order" sheetId="1" r:id="rId1"/>
@@ -15,18 +20,18 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,13 +231,17 @@
   </si>
   <si>
     <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,21 +687,24 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -785,6 +797,9 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1053,12 +1068,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1121,12 +1136,12 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="18.125" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1189,11 +1204,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1253,7 +1268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/testdata/payaccount-testdata.xlsx
+++ b/src/main/resources/testdata/payaccount-testdata.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingxin/work/IdeaProjects/paystandtest/src/main/resources/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="5360" windowWidth="25920" windowHeight="12640" activeTab="3"/>
+    <workbookView xWindow="1755" yWindow="5355" windowWidth="25920" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pay_order" sheetId="1" r:id="rId1"/>
@@ -20,18 +15,18 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,14 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016071311395830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016071311395825</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,63 +173,194 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>up1467363720771</t>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>transfer_type</t>
+  </si>
+  <si>
+    <t>settle_channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle_period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>royalty_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201607191918087</t>
+  </si>
+  <si>
+    <t>OC2016071919085642991</t>
+  </si>
+  <si>
+    <t>201607191918088</t>
+  </si>
+  <si>
+    <t>OC2016071919085643991</t>
+  </si>
+  <si>
+    <t>OC2016072010450560991</t>
+  </si>
+  <si>
+    <t>OC2016072010455863991</t>
+  </si>
+  <si>
+    <t>2016072011550720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016072011550720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201607191918089</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>OP201607181146161991</t>
   </si>
   <si>
     <t>11335725725655</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20130815162325</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyy123</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>OP201607011702131991000</t>
-  </si>
-  <si>
-    <t>2016070121001004200275561283</t>
-  </si>
-  <si>
-    <t>2016-01-01 12:12:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香飘飘奶茶500ml</t>
+  </si>
+  <si>
+    <t>OC201607181146162991</t>
+  </si>
+  <si>
+    <t>2016071821001004150291733816</t>
+  </si>
+  <si>
+    <t>2016-07-17 11:47:30</t>
+  </si>
+  <si>
+    <t>2016-07-18 11:46:16</t>
+  </si>
+  <si>
+    <t>2016-07-18 11:47:31</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>JackJones衬衫</t>
+  </si>
+  <si>
+    <t>OC201607181146163991</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>up1468813473783</t>
+  </si>
+  <si>
+    <t>奶茶、衬衫等多件</t>
+  </si>
+  <si>
+    <t>2016-07-18 11:47:30</t>
   </si>
   <si>
     <t>http://www.qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-  </si>
-  <si>
-    <t>2016071311395835</t>
-  </si>
-  <si>
-    <t>OP20160713151246921000</t>
-  </si>
-  <si>
-    <t>2016071311395830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"MerchantId":"11","PayAmount":"0.01","PayInfo":"香飘飘奶茶500ml","ProCount":"7","ProductId":111},{"MerchantId":"11","PayAmount":"0.01","PayInfo":"JackJones衬衫","ProCount":"1","ProductId":112}]</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>OP201607181150224991</t>
+  </si>
+  <si>
+    <t>OC201607181150225991</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,10 +465,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="53" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -684,136 +803,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="30.375" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G2">
         <v>15868477618</v>
@@ -822,46 +941,41 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0.01</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" t="s">
-        <v>52</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="S2" s="2"/>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -870,33 +984,32 @@
         <v>1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1</v>
-      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G3">
         <v>15868477618</v>
@@ -905,46 +1018,41 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0.01</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" t="s">
-        <v>52</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="S3" s="2"/>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -958,28 +1066,27 @@
       <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>1</v>
-      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G4">
         <v>15868477618</v>
@@ -988,95 +1095,168 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="M4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="N4">
+        <v>0.02</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>11</v>
+      </c>
+      <c r="W4">
+        <v>111</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>15868477618</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5">
+        <v>2.0160718656582499E+17</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>0.01</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>1</v>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>42568.493958333333</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>42569.493310185186</v>
+      </c>
+      <c r="R5" s="3">
+        <v>42569.493958333333</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>11</v>
+      </c>
+      <c r="W5">
+        <v>111</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1092,33 +1272,283 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>238</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
       <c r="E2">
-        <v>32</v>
+        <v>131</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>42570.041666666664</v>
+      </c>
+      <c r="P2" s="3">
+        <v>42570.8046875</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>239</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>133</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>-3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>42570.041666666664</v>
+      </c>
+      <c r="P3" s="3">
+        <v>42570.8046875</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>240</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>111</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4" s="3">
+        <v>42571.041666666664</v>
+      </c>
+      <c r="P4" s="3">
+        <v>42571.497037037036</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>241</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>111</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5" s="3">
+        <v>42571.041666666664</v>
+      </c>
+      <c r="P5" s="3">
+        <v>42571.497037037036</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1130,21 +1560,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="18.1640625" customWidth="1"/>
+    <col min="2" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1166,27 +1596,261 @@
       <c r="G1" t="s">
         <v>11</v>
       </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>-3</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>42570.041666666664</v>
+      </c>
+      <c r="P2" s="3">
+        <v>42570.041666666664</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>42570.8046875</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>491</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2016071919180810</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>42570.041666666664</v>
+      </c>
+      <c r="P3" s="3">
+        <v>42570.041666666664</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>42570.8046875</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>492</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2016072011550730</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>42579.041666666664</v>
+      </c>
+      <c r="P4" s="3">
+        <v>42571.041666666664</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>42571.497037037036</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>493</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2016072011550730</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>42579.041666666664</v>
+      </c>
+      <c r="P5" s="3">
+        <v>42571.041666666664</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>42571.497037037036</v>
+      </c>
+      <c r="R5">
         <v>0</v>
       </c>
     </row>
@@ -1198,26 +1862,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1233,26 +1898,6 @@
       </c>
       <c r="G1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1268,9 +1913,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/testdata/payaccount-testdata.xlsx
+++ b/src/main/resources/testdata/payaccount-testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="5355" windowWidth="25920" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="1755" yWindow="5355" windowWidth="25920" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="pay_order" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,10 @@
   </si>
   <si>
     <t>OC201607181150225991</t>
+  </si>
+  <si>
+    <t>2016-07-18 11:47:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -805,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -823,7 +827,14 @@
     <col min="10" max="10" width="30.375" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="16" max="16" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27" customWidth="1"/>
+    <col min="17" max="17" width="22.125" customWidth="1"/>
+    <col min="18" max="18" width="20.125" customWidth="1"/>
+    <col min="19" max="19" width="21.125" customWidth="1"/>
+    <col min="20" max="20" width="25.25" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="13.75" customWidth="1"/>
+    <col min="23" max="23" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -967,7 +978,12 @@
       <c r="R2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
       <c r="U2">
         <v>0</v>
       </c>
@@ -1044,7 +1060,12 @@
       <c r="R3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
       <c r="U3">
         <v>0</v>
       </c>
@@ -1198,14 +1219,20 @@
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="3">
-        <v>42568.493958333333</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>42569.493310185186</v>
-      </c>
-      <c r="R5" s="3">
-        <v>42569.493958333333</v>
+      <c r="P5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" t="s">
+        <v>42</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1864,7 +1891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/testdata/payaccount-testdata.xlsx
+++ b/src/main/resources/testdata/payaccount-testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="5360" windowWidth="25920" windowHeight="12640" activeTab="3"/>
+    <workbookView xWindow="6220" yWindow="5960" windowWidth="62580" windowHeight="15160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pay_order" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,185 +57,345 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>test_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordertype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_code</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>pay_period</t>
+  </si>
+  <si>
+    <t>trade_no</t>
+  </si>
+  <si>
+    <t>third_orderid</t>
+  </si>
+  <si>
+    <t>failurereasons</t>
+  </si>
+  <si>
+    <t>platformid</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>pay_time</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>return_url</t>
+  </si>
+  <si>
+    <t>notify_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+  </si>
+  <si>
+    <t>merchantid</t>
+  </si>
+  <si>
+    <t>productid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>royalty_flag</t>
+  </si>
+  <si>
+    <t>digest_alg</t>
+  </si>
+  <si>
+    <t>pro_count</t>
+  </si>
+  <si>
+    <t>order_type</t>
+  </si>
+  <si>
+    <t>merchant_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transactionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>transfer_type</t>
+  </si>
+  <si>
+    <t>settle_channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle_period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>royalty_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201607191918087</t>
+  </si>
+  <si>
+    <t>OC2016071919085642991</t>
+  </si>
+  <si>
+    <t>201607191918088</t>
+  </si>
+  <si>
+    <t>OC2016071919085643991</t>
+  </si>
+  <si>
+    <t>OC2016072010450560991</t>
+  </si>
+  <si>
+    <t>OC2016072010455863991</t>
+  </si>
+  <si>
+    <t>2016072011550720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016072011550720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>OP201607181146161991</t>
+  </si>
+  <si>
+    <t>11335725725655</t>
+  </si>
+  <si>
+    <t>20130815162325</t>
+  </si>
+  <si>
+    <t>香飘飘奶茶500ml</t>
+  </si>
+  <si>
+    <t>OC201607181146162991</t>
+  </si>
+  <si>
+    <t>2016071821001004150291733816</t>
+  </si>
+  <si>
+    <t>2016-07-17 11:47:30</t>
+  </si>
+  <si>
+    <t>2016-07-18 11:46:16</t>
+  </si>
+  <si>
+    <t>2016-07-18 11:47:31</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>JackJones衬衫</t>
+  </si>
+  <si>
+    <t>OC201607181146163991</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>up1468813473783</t>
+  </si>
+  <si>
+    <t>奶茶、衬衫等多件</t>
+  </si>
+  <si>
+    <t>2016-07-18 11:47:30</t>
+  </si>
+  <si>
+    <t>http://www.qq.com</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>OP201607181150224991</t>
+  </si>
+  <si>
+    <t>OC201607181150225991</t>
+  </si>
+  <si>
+    <t>2016-07-18 11:47:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_id</t>
+  </si>
+  <si>
+    <t>settleid</t>
   </si>
   <si>
     <t>merchant_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transfer_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>settle_channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016071311395830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016071311395825</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordertype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_code</t>
-  </si>
-  <si>
-    <t>account_type</t>
-  </si>
-  <si>
-    <t>pay_period</t>
-  </si>
-  <si>
-    <t>trade_no</t>
-  </si>
-  <si>
-    <t>third_orderid</t>
-  </si>
-  <si>
-    <t>failurereasons</t>
-  </si>
-  <si>
-    <t>platformid</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>pay_time</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>update_time</t>
-  </si>
-  <si>
-    <t>return_url</t>
-  </si>
-  <si>
-    <t>notify_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_flag</t>
-  </si>
-  <si>
-    <t>merchantid</t>
-  </si>
-  <si>
-    <t>productid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>royalty_flag</t>
-  </si>
-  <si>
-    <t>digest_alg</t>
-  </si>
-  <si>
-    <t>pro_count</t>
-  </si>
-  <si>
-    <t>order_type</t>
-  </si>
-  <si>
-    <t>merchant_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transactionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_fee</t>
+  </si>
+  <si>
+    <t>income_fee</t>
+  </si>
+  <si>
+    <t>merchant_fee</t>
+  </si>
+  <si>
+    <t>service_fee</t>
+  </si>
+  <si>
+    <t>settle_period</t>
   </si>
   <si>
     <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up1467363720771</t>
-  </si>
-  <si>
-    <t>11335725725655</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20130815162325</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyy123</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>OP201607011702131991000</t>
-  </si>
-  <si>
-    <t>2016070121001004200275561283</t>
-  </si>
-  <si>
-    <t>2016-01-01 12:12:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-  </si>
-  <si>
-    <t>2016071311395835</t>
-  </si>
-  <si>
-    <t>OP20160713151246921000</t>
-  </si>
-  <si>
-    <t>2016071311395830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audit_date</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2016070516423015</t>
+  </si>
+  <si>
+    <t>2016-07-05 16:42:30</t>
+  </si>
+  <si>
+    <t>2016-08-31 14:21:23</t>
+  </si>
+  <si>
+    <t>2016070516423016</t>
+  </si>
+  <si>
+    <t>2016-07-05 16:44:01</t>
+  </si>
+  <si>
+    <t>2016070516423017</t>
+  </si>
+  <si>
+    <t>2016-07-05 16:44:04</t>
+  </si>
+  <si>
+    <t>2016070516423018</t>
+  </si>
+  <si>
+    <t>2016070516423019</t>
+  </si>
+  <si>
+    <t>2016070516423020</t>
+  </si>
+  <si>
+    <t>2016-08-30 16:50:38</t>
+  </si>
+  <si>
+    <t>2016070516423021</t>
+  </si>
+  <si>
+    <t>2016070516423022</t>
+  </si>
+  <si>
+    <t>2016070516423023</t>
+  </si>
+  <si>
+    <t>2016070516423024</t>
+  </si>
+  <si>
+    <t>2016-07-05 14:35:00</t>
   </si>
 </sst>
 </file>
@@ -347,10 +507,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="53" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -684,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -704,7 +865,14 @@
     <col min="10" max="10" width="30.33203125" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27" customWidth="1"/>
+    <col min="17" max="17" width="22.1640625" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -712,108 +880,108 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AA1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>15868477618</v>
@@ -822,46 +990,46 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0.01</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -870,33 +1038,32 @@
         <v>1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1</v>
-      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G3">
         <v>15868477618</v>
@@ -905,46 +1072,46 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0.01</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -958,28 +1125,27 @@
       <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>1</v>
-      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>15868477618</v>
@@ -988,84 +1154,157 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="M4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="N4">
+        <v>0.02</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>11</v>
+      </c>
+      <c r="W4">
+        <v>111</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>15868477618</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>0.01</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>1</v>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>11</v>
+      </c>
+      <c r="W5">
+        <v>111</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1074,9 +1313,13 @@
     <col min="3" max="3" width="27.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1092,33 +1335,283 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>238</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
       <c r="E2">
-        <v>32</v>
+        <v>131</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>42570.041666666664</v>
+      </c>
+      <c r="P2" s="3">
+        <v>42570.8046875</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>239</v>
+      </c>
       <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
       <c r="D3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>133</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>-3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>42570.041666666664</v>
+      </c>
+      <c r="P3" s="3">
+        <v>42570.8046875</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>240</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>111</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4" s="3">
+        <v>42571.041666666664</v>
+      </c>
+      <c r="P4" s="3">
+        <v>42571.497037037036</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>241</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>111</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5" s="3">
+        <v>42571.041666666664</v>
+      </c>
+      <c r="P5" s="3">
+        <v>42571.497037037036</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1130,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1144,41 +1637,74 @@
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3864</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>388</v>
-      </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1187,6 +1713,543 @@
         <v>2</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>400</v>
+      </c>
+      <c r="I2">
+        <v>-3</v>
+      </c>
+      <c r="J2">
+        <v>399</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3865</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>400</v>
+      </c>
+      <c r="I3">
+        <v>-2</v>
+      </c>
+      <c r="J3">
+        <v>398</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3866</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>400</v>
+      </c>
+      <c r="I4">
+        <v>-3</v>
+      </c>
+      <c r="J4">
+        <v>399</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3867</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>-2</v>
+      </c>
+      <c r="J5">
+        <v>398</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3868</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>400</v>
+      </c>
+      <c r="I6">
+        <v>-2</v>
+      </c>
+      <c r="J6">
+        <v>398</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3869</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>400</v>
+      </c>
+      <c r="I7">
+        <v>-23</v>
+      </c>
+      <c r="J7">
+        <v>399</v>
+      </c>
+      <c r="K7">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3870</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>400</v>
+      </c>
+      <c r="I8">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>399</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3871</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>400</v>
+      </c>
+      <c r="I9">
+        <v>-23</v>
+      </c>
+      <c r="J9">
+        <v>399</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>105</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3872</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>400</v>
+      </c>
+      <c r="I10">
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <v>399</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3873</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>400</v>
+      </c>
+      <c r="I11">
+        <v>-23</v>
+      </c>
+      <c r="J11">
+        <v>399</v>
+      </c>
+      <c r="K11">
+        <v>24</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11">
         <v>0</v>
       </c>
     </row>
@@ -1198,14 +2261,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
@@ -1214,10 +2278,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1233,26 +2297,6 @@
       </c>
       <c r="G1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1272,5 +2316,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>